--- a/latent dirichlet allocation topics.xlsx
+++ b/latent dirichlet allocation topics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Score for Negativity</t>
   </si>
@@ -28,31 +28,22 @@
     <t>Terms</t>
   </si>
   <si>
-    <t>letter,sent,never,year,collection,default,received,even,agency,tax,also,still,husband,law,since,file,paper,u,contact,due</t>
-  </si>
-  <si>
-    <t>payment,told,month,called,said,due,could,make,back,account,time,call,pay,day,forbearance,got,asked,received,spoke,amount</t>
-  </si>
-  <si>
-    <t>payment,call,pay,time,said,one,month,money,never,bill,phone,got,paid,called,say,help,day,people,account,send</t>
-  </si>
-  <si>
-    <t>forbearance,told,said,deferment,form,called,back,rep,application,process,information,could,time,request,asked,call,sent,received,later,email</t>
-  </si>
-  <si>
-    <t>payment,account,late,fee,check,bank,time,day,sent,month,paid,due,money,one,amount,made,received,date,applied,make</t>
-  </si>
-  <si>
-    <t>call,phone,number,day,son,time,calling,told,stop,called,harassing,person,name,message,every,hour,cosigner,information,trying,work</t>
-  </si>
-  <si>
-    <t>interest,payment,rate,year,amount,pay,balance,paid,principal,paying,month,made,monthly,federal,making,owe,since,went,applied,total</t>
-  </si>
-  <si>
-    <t>pay,job,month,time,year,make,money,work,go,one,college,payment,could,credit,people,like,help,even,paying,back</t>
-  </si>
-  <si>
-    <t>credit,customer,service,account,report,information,representative,contacted,department,one,speak,supervisor,cosigner,could,number,told,issue,stated,collection,payment</t>
+    <t>payment,late,month,account,fee,pay,time,due,bank,make,bill,paid,day,online,never,even,check,one,every,charge</t>
+  </si>
+  <si>
+    <t>pay,month,job,year,money,payment,time,work,make,credit,go,one,people,could,help,like,college,even,back,going</t>
+  </si>
+  <si>
+    <t>payment,interest,pay,amount,rate,month,year,paid,paying,balance,principal,time,made,one,monthly,making,applied,owe,make,money</t>
+  </si>
+  <si>
+    <t>forbearance,told,received,deferment,form,letter,month,said,could,application,back,called,sent,repayment,time,stating,paperwork,rep,year,college</t>
+  </si>
+  <si>
+    <t>account,payment,customer,credit,service,check,sent,called,received,told,information,representative,letter,bank,delinquent,issue,report,back,could,day</t>
+  </si>
+  <si>
+    <t>call,phone,day,told,time,said,called,number,calling,asked,payment,even,know,back,one,never,got,person,stop,someone</t>
   </si>
 </sst>
 </file>
@@ -123,269 +114,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score for Negativity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-1.520354292082828E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32224383355972192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55035885893865688</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21276324589420231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.26018743028881192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.7722669910902186E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.2537656599057983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11639401209493561</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.60487777425861489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent Dominance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7.4809160305343514E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13358778625954201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12748091603053441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.053435114503817E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18015267175572519</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8167938931297711E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3969465648854963E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27099236641221369</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0305343511450379E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="85829888"/>
-        <c:axId val="85835776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85829888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85835776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85835776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85829888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7248525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,17 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="159.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -701,10 +423,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-1.520354292082828E-2</v>
+        <v>-0.08273896198486635</v>
       </c>
       <c r="B2">
-        <v>7.4809160305343514E-2</v>
+        <v>0.09618320610687023</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -715,10 +437,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.32224383355972192</v>
+        <v>0.1441260582002455</v>
       </c>
       <c r="B3">
-        <v>0.13358778625954201</v>
+        <v>0.3435114503816794</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -729,10 +451,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.55035885893865688</v>
+        <v>-0.01336861211180364</v>
       </c>
       <c r="B4">
-        <v>0.12748091603053441</v>
+        <v>0.1198473282442748</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -743,10 +465,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.21276324589420231</v>
+        <v>-0.3004969641707594</v>
       </c>
       <c r="B5">
-        <v>3.053435114503817E-2</v>
+        <v>0.05267175572519084</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -757,10 +479,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-0.26018743028881192</v>
+        <v>-0.2243951080702463</v>
       </c>
       <c r="B6">
-        <v>0.18015267175572519</v>
+        <v>0.1694656488549618</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -771,10 +493,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>-6.7722669910902186E-2</v>
+        <v>0.4768735882382202</v>
       </c>
       <c r="B7">
-        <v>3.8167938931297711E-2</v>
+        <v>0.2183206106870229</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -783,50 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>-0.2537656599057983</v>
-      </c>
-      <c r="B8">
-        <v>8.3969465648854963E-2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>0.11639401209493561</v>
-      </c>
-      <c r="B9">
-        <v>0.27099236641221369</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>-0.60487777425861489</v>
-      </c>
-      <c r="B10">
-        <v>6.0305343511450379E-2</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/latent dirichlet allocation topics.xlsx
+++ b/latent dirichlet allocation topics.xlsx
@@ -34,16 +34,16 @@
     <t>pay,month,job,year,money,payment,time,work,make,credit,go,one,people,could,help,like,college,even,back,going</t>
   </si>
   <si>
-    <t>payment,interest,pay,amount,rate,month,year,paid,paying,balance,principal,time,made,one,monthly,making,applied,owe,make,money</t>
-  </si>
-  <si>
-    <t>forbearance,told,received,deferment,form,letter,month,said,could,application,back,called,sent,repayment,time,stating,paperwork,rep,year,college</t>
-  </si>
-  <si>
-    <t>account,payment,customer,credit,service,check,sent,called,received,told,information,representative,letter,bank,delinquent,issue,report,back,could,day</t>
-  </si>
-  <si>
-    <t>call,phone,day,told,time,said,called,number,calling,asked,payment,even,know,back,one,never,got,person,stop,someone</t>
+    <t>payment,interest,pay,amount,rate,year,month,paid,paying,balance,principal,time,made,monthly,one,making,applied,owe,make,money</t>
+  </si>
+  <si>
+    <t>forbearance,told,received,deferment,form,letter,month,said,could,application,back,sent,called,repayment,time,paperwork,stating,rep,year,college</t>
+  </si>
+  <si>
+    <t>account,payment,customer,credit,service,check,called,sent,received,information,told,representative,bank,letter,issue,report,back,could,day,delinquent</t>
+  </si>
+  <si>
+    <t>call,phone,day,told,time,said,called,number,calling,asked,payment,even,back,know,one,never,person,got,stop,someone</t>
   </si>
 </sst>
 </file>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.08273896198486635</v>
+        <v>-0.0708726054971081</v>
       </c>
       <c r="B2">
-        <v>0.09618320610687023</v>
+        <v>0.09541984732824428</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.1441260582002455</v>
+        <v>0.1400158327575333</v>
       </c>
       <c r="B3">
         <v>0.3435114503816794</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-0.01336861211180364</v>
+        <v>-0.01495059315321198</v>
       </c>
       <c r="B4">
-        <v>0.1198473282442748</v>
+        <v>0.1206106870229008</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-0.3004969641707594</v>
+        <v>-0.3101741051898327</v>
       </c>
       <c r="B5">
-        <v>0.05267175572519084</v>
+        <v>0.05190839694656488</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-0.2243951080702463</v>
+        <v>-0.2200793847966849</v>
       </c>
       <c r="B6">
-        <v>0.1694656488549618</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.4768735882382202</v>
+        <v>0.4761604127767897</v>
       </c>
       <c r="B7">
-        <v>0.2183206106870229</v>
+        <v>0.2206106870229008</v>
       </c>
       <c r="C7">
         <v>5</v>

--- a/latent dirichlet allocation topics.xlsx
+++ b/latent dirichlet allocation topics.xlsx
@@ -28,22 +28,22 @@
     <t>Terms</t>
   </si>
   <si>
-    <t>payment,late,month,account,fee,pay,time,due,bank,make,bill,paid,day,online,never,even,check,one,every,charge</t>
-  </si>
-  <si>
-    <t>pay,month,job,year,money,payment,time,work,make,credit,go,one,people,could,help,like,college,even,back,going</t>
-  </si>
-  <si>
-    <t>payment,interest,pay,amount,rate,year,month,paid,paying,balance,principal,time,made,monthly,one,making,applied,owe,make,money</t>
-  </si>
-  <si>
-    <t>forbearance,told,received,deferment,form,letter,month,said,could,application,back,sent,called,repayment,time,paperwork,stating,rep,year,college</t>
-  </si>
-  <si>
-    <t>account,payment,customer,credit,service,check,called,sent,received,information,told,representative,bank,letter,issue,report,back,could,day,delinquent</t>
-  </si>
-  <si>
-    <t>call,phone,day,told,time,said,called,number,calling,asked,payment,even,back,know,one,never,person,got,stop,someone</t>
+    <t>payment,account,pay,month,check,make,interest,late,fee,bank,amount,charge,due,apply,send,take,time,balance,go,principal</t>
+  </si>
+  <si>
+    <t>call,customer,service,number,speak,representative,phone,contact,information,give,account,issue,try,time,one,hold,supervisor,problem,person,someone</t>
+  </si>
+  <si>
+    <t>tell,forbearance,receive,call,say,request,day,send,could,form,time,deferment,letter,state,ask,rep,month,payment,back,process</t>
+  </si>
+  <si>
+    <t>credit,report,receive,send,account,letter,collection,agency,delinquent,state,contact,never,show,due,still,information,default,mail,issue,owe</t>
+  </si>
+  <si>
+    <t>call,tell,say,payment,pay,time,day,phone,make,go,ask,harass,month,try,send,even,back,money,one,know</t>
+  </si>
+  <si>
+    <t>pay,go,payment,year,make,month,take,job,work,time,interest,money,college,one,could,help,tell,try,like,even</t>
   </si>
 </sst>
 </file>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.0708726054971081</v>
+        <v>-0.3288207330953067</v>
       </c>
       <c r="B2">
-        <v>0.09541984732824428</v>
+        <v>0.1694656488549618</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.1400158327575333</v>
+        <v>-0.006713715523267633</v>
       </c>
       <c r="B3">
-        <v>0.3435114503816794</v>
+        <v>0.07404580152671755</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-0.01495059315321198</v>
+        <v>0.05709548479904948</v>
       </c>
       <c r="B4">
-        <v>0.1206106870229008</v>
+        <v>0.07404580152671755</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-0.3101741051898327</v>
+        <v>-0.299271170347498</v>
       </c>
       <c r="B5">
-        <v>0.05190839694656488</v>
+        <v>0.04274809160305344</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-0.2200793847966849</v>
+        <v>0.4442888386644782</v>
       </c>
       <c r="B6">
-        <v>0.1679389312977099</v>
+        <v>0.2572519083969466</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.4761604127767897</v>
+        <v>0.1334213425059525</v>
       </c>
       <c r="B7">
-        <v>0.2206106870229008</v>
+        <v>0.3824427480916031</v>
       </c>
       <c r="C7">
         <v>5</v>
